--- a/pred_ohlcv/54_23/2019-10-18 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-18 CON ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -599,7 +599,7 @@
         <v>5.57</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -875,7 +875,7 @@
         <v>5.57</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2577,7 +2577,7 @@
         <v>5.63</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -2646,7 +2646,7 @@
         <v>5.65</v>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -2692,7 +2692,7 @@
         <v>5.65</v>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -2715,7 +2715,7 @@
         <v>5.65</v>
       </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -2738,7 +2738,7 @@
         <v>5.64</v>
       </c>
       <c r="F103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -2876,7 +2876,7 @@
         <v>5.63</v>
       </c>
       <c r="F109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -2899,7 +2899,7 @@
         <v>5.63</v>
       </c>
       <c r="F110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="G231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="G232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="G236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
@@ -5892,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="G240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243">
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="G246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -6053,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -6145,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="G251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252">
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254">
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255">
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256">
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257">
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258">
@@ -6444,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="G265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -6881,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -6927,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -7847,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326">
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -7893,7 +7893,7 @@
         <v>0</v>
       </c>
       <c r="G327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328">
@@ -7916,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="G329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330">
@@ -7962,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="G330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331">
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332">
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="G334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="G335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336">
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="G337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338">
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339">
@@ -8169,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341">
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342">
@@ -8238,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344">
@@ -8284,7 +8284,7 @@
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345">
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346">
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348">
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="G348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="G349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350">
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="G350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351">
@@ -8445,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352">
@@ -8468,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="G352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354">
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355">
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356">
@@ -8560,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357">
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358">
@@ -8606,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359">
@@ -8629,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360">
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361">
@@ -8675,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362">
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363">
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="G363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
@@ -8744,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="G364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365">
@@ -8767,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366">
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367">
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368">
@@ -8836,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369">
@@ -8859,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="G369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370">
@@ -8882,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="G370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371">
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="G371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -8928,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="G372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="G373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375">
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="G375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376">
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377">
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378">
@@ -9066,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="G378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379">
@@ -9089,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="G379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380">
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381">
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="G381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382">
@@ -9158,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="G382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383">
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="G383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384">
@@ -9204,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="G384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385">
@@ -9227,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="G385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386">
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387">
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="G387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388">
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="G388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389">
@@ -9319,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="G389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="G390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391">
@@ -9365,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="G391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392">
@@ -9388,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="G392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393">
@@ -9411,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="G393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394">
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="G394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395">
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="G395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396">
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="G396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397">
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="G397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398">
@@ -9618,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="G402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403">
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="G403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404">
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="G404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="G405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406">
@@ -9710,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="G406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407">
@@ -9733,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="G407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="G408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409">
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="G409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="G410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411">
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="G411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -9848,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="G412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413">
@@ -10170,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="G426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427">
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="G427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -10216,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="G428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429">
@@ -10239,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="G429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430">
@@ -10262,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="G430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431">
@@ -10285,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="G431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432">
@@ -10308,7 +10308,7 @@
         <v>0</v>
       </c>
       <c r="G432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433">
@@ -10331,7 +10331,7 @@
         <v>0</v>
       </c>
       <c r="G433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434">
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="G434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435">
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="G435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436">
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="G437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438">
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="G438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="G439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440">
@@ -10492,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="G440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441">
@@ -10515,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="G441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442">
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="G505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
@@ -12010,7 +12010,7 @@
         <v>0</v>
       </c>
       <c r="G506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="G507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="G508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -12079,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="G509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="G510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -12125,7 +12125,7 @@
         <v>0</v>
       </c>
       <c r="G511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
@@ -12148,7 +12148,7 @@
         <v>0</v>
       </c>
       <c r="G512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -12171,7 +12171,7 @@
         <v>0</v>
       </c>
       <c r="G513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -12194,7 +12194,7 @@
         <v>0</v>
       </c>
       <c r="G514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -12217,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="G515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
@@ -12240,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="G516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
@@ -12263,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="G517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
@@ -12286,7 +12286,7 @@
         <v>0</v>
       </c>
       <c r="G518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
@@ -12309,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="G519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -12332,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="G520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
@@ -12355,7 +12355,7 @@
         <v>0</v>
       </c>
       <c r="G521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
@@ -12378,7 +12378,7 @@
         <v>0</v>
       </c>
       <c r="G522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
@@ -12401,7 +12401,7 @@
         <v>0</v>
       </c>
       <c r="G523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
@@ -12424,7 +12424,7 @@
         <v>0</v>
       </c>
       <c r="G524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
@@ -12447,7 +12447,7 @@
         <v>0</v>
       </c>
       <c r="G525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -12470,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="G526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
@@ -12493,7 +12493,7 @@
         <v>0</v>
       </c>
       <c r="G527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
@@ -12516,7 +12516,7 @@
         <v>0</v>
       </c>
       <c r="G528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -12539,7 +12539,7 @@
         <v>0</v>
       </c>
       <c r="G529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -12562,7 +12562,7 @@
         <v>0</v>
       </c>
       <c r="G530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
@@ -12585,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="G531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -12608,7 +12608,7 @@
         <v>0</v>
       </c>
       <c r="G532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
@@ -12631,7 +12631,7 @@
         <v>0</v>
       </c>
       <c r="G533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -12654,7 +12654,7 @@
         <v>0</v>
       </c>
       <c r="G534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
@@ -12677,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="G535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="G536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -12723,7 +12723,7 @@
         <v>0</v>
       </c>
       <c r="G537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -12746,7 +12746,7 @@
         <v>0</v>
       </c>
       <c r="G538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -12769,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="G539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -12792,7 +12792,7 @@
         <v>0</v>
       </c>
       <c r="G540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
@@ -12815,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="G541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -12838,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="G542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
@@ -12861,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="G543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -12884,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="G544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -12907,7 +12907,7 @@
         <v>0</v>
       </c>
       <c r="G545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
@@ -12930,7 +12930,7 @@
         <v>0</v>
       </c>
       <c r="G546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -12953,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="G547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -12976,7 +12976,7 @@
         <v>0</v>
       </c>
       <c r="G548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -12999,7 +12999,7 @@
         <v>0</v>
       </c>
       <c r="G549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -13022,7 +13022,7 @@
         <v>0</v>
       </c>
       <c r="G550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -13045,7 +13045,7 @@
         <v>0</v>
       </c>
       <c r="G551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -13068,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="G552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -13091,7 +13091,7 @@
         <v>0</v>
       </c>
       <c r="G553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -13114,7 +13114,7 @@
         <v>0</v>
       </c>
       <c r="G554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -13137,7 +13137,7 @@
         <v>0</v>
       </c>
       <c r="G555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -13160,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="G556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="G557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -13206,7 +13206,7 @@
         <v>0</v>
       </c>
       <c r="G558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="G559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -13252,7 +13252,7 @@
         <v>0</v>
       </c>
       <c r="G560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
@@ -13275,7 +13275,7 @@
         <v>0</v>
       </c>
       <c r="G561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="G562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
@@ -13321,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="G563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
@@ -13344,7 +13344,7 @@
         <v>0</v>
       </c>
       <c r="G564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="G565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
@@ -13390,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="G566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
@@ -13413,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="G567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -13436,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="G568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="G569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -13482,7 +13482,7 @@
         <v>0</v>
       </c>
       <c r="G570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
@@ -13505,7 +13505,7 @@
         <v>0</v>
       </c>
       <c r="G571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -13528,7 +13528,7 @@
         <v>0</v>
       </c>
       <c r="G572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
@@ -13551,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="G573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -13574,7 +13574,7 @@
         <v>0</v>
       </c>
       <c r="G574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="G575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
@@ -13620,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="G576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
@@ -13643,7 +13643,7 @@
         <v>0</v>
       </c>
       <c r="G577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="G579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -13712,7 +13712,7 @@
         <v>0</v>
       </c>
       <c r="G580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
@@ -13735,7 +13735,7 @@
         <v>0</v>
       </c>
       <c r="G581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -13758,7 +13758,7 @@
         <v>0</v>
       </c>
       <c r="G582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -13781,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="G583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
@@ -13804,7 +13804,7 @@
         <v>0</v>
       </c>
       <c r="G584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
@@ -13827,7 +13827,7 @@
         <v>0</v>
       </c>
       <c r="G585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -13850,7 +13850,7 @@
         <v>0</v>
       </c>
       <c r="G586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
@@ -13873,7 +13873,7 @@
         <v>0</v>
       </c>
       <c r="G587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -13896,7 +13896,7 @@
         <v>0</v>
       </c>
       <c r="G588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="G589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -13942,7 +13942,7 @@
         <v>0</v>
       </c>
       <c r="G590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -13965,7 +13965,7 @@
         <v>0</v>
       </c>
       <c r="G591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -13988,7 +13988,7 @@
         <v>0</v>
       </c>
       <c r="G592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -14011,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="G593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -14034,7 +14034,7 @@
         <v>0</v>
       </c>
       <c r="G594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
@@ -14057,7 +14057,7 @@
         <v>0</v>
       </c>
       <c r="G595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
@@ -14080,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="G596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
@@ -14103,7 +14103,7 @@
         <v>0</v>
       </c>
       <c r="G597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -14126,7 +14126,7 @@
         <v>0</v>
       </c>
       <c r="G598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="G599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="G600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -14195,7 +14195,7 @@
         <v>0</v>
       </c>
       <c r="G601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -14218,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="G602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
@@ -14241,7 +14241,7 @@
         <v>0</v>
       </c>
       <c r="G603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
@@ -14264,7 +14264,7 @@
         <v>0</v>
       </c>
       <c r="G604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
@@ -14287,7 +14287,7 @@
         <v>0</v>
       </c>
       <c r="G605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -14310,7 +14310,7 @@
         <v>0</v>
       </c>
       <c r="G606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
@@ -14333,7 +14333,7 @@
         <v>0</v>
       </c>
       <c r="G607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
@@ -14356,7 +14356,7 @@
         <v>0</v>
       </c>
       <c r="G608" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -14379,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="G609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -14402,7 +14402,7 @@
         <v>0</v>
       </c>
       <c r="G610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
@@ -14425,7 +14425,7 @@
         <v>0</v>
       </c>
       <c r="G611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
@@ -14448,7 +14448,7 @@
         <v>0</v>
       </c>
       <c r="G612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="G613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
@@ -14494,7 +14494,7 @@
         <v>0</v>
       </c>
       <c r="G614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
@@ -14517,7 +14517,7 @@
         <v>0</v>
       </c>
       <c r="G615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -14540,7 +14540,7 @@
         <v>0</v>
       </c>
       <c r="G616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
@@ -14563,7 +14563,7 @@
         <v>0</v>
       </c>
       <c r="G617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
@@ -14586,7 +14586,7 @@
         <v>0</v>
       </c>
       <c r="G618" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619">
@@ -14609,7 +14609,7 @@
         <v>0</v>
       </c>
       <c r="G619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
@@ -14632,7 +14632,7 @@
         <v>0</v>
       </c>
       <c r="G620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
@@ -14655,7 +14655,7 @@
         <v>0</v>
       </c>
       <c r="G621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
@@ -14678,7 +14678,7 @@
         <v>0</v>
       </c>
       <c r="G622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
@@ -14701,7 +14701,7 @@
         <v>0</v>
       </c>
       <c r="G623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
@@ -14724,7 +14724,7 @@
         <v>0</v>
       </c>
       <c r="G624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
@@ -14770,7 +14770,7 @@
         <v>0</v>
       </c>
       <c r="G626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
@@ -14793,7 +14793,7 @@
         <v>0</v>
       </c>
       <c r="G627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
@@ -14816,7 +14816,7 @@
         <v>0</v>
       </c>
       <c r="G628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629">
@@ -14885,7 +14885,7 @@
         <v>0</v>
       </c>
       <c r="G631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
@@ -14954,7 +14954,7 @@
         <v>0</v>
       </c>
       <c r="G634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
@@ -15322,7 +15322,7 @@
         <v>0</v>
       </c>
       <c r="G650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651">
@@ -15345,7 +15345,7 @@
         <v>0</v>
       </c>
       <c r="G651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
@@ -15368,7 +15368,7 @@
         <v>0</v>
       </c>
       <c r="G652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
@@ -15391,7 +15391,7 @@
         <v>0</v>
       </c>
       <c r="G653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
@@ -15414,7 +15414,7 @@
         <v>0</v>
       </c>
       <c r="G654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
@@ -15437,7 +15437,7 @@
         <v>0</v>
       </c>
       <c r="G655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
@@ -15460,7 +15460,7 @@
         <v>0</v>
       </c>
       <c r="G656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
@@ -15483,7 +15483,7 @@
         <v>0</v>
       </c>
       <c r="G657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
@@ -15506,7 +15506,7 @@
         <v>0</v>
       </c>
       <c r="G658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
@@ -15529,10 +15529,10 @@
         <v>0</v>
       </c>
       <c r="G659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>